--- a/U2_Janovsky/TZ/tabulky.xlsx
+++ b/U2_Janovsky/TZ/tabulky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karvi_000\Documents\GitHub\ADK_Janovsky\U2_Janovsky\TZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9297F992-66C6-44DE-9086-C15D481767A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F1EB19A-075B-458C-8B5F-E951C993731E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>pocet bodu</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>rozptyl</t>
+  </si>
+  <si>
+    <t>smerodatna</t>
+  </si>
+  <si>
+    <t>rozpt. rucne</t>
+  </si>
+  <si>
+    <t>https://cs.wikipedia.org/wiki/Rozptyl_(statistika)</t>
   </si>
 </sst>
 </file>
@@ -15242,6 +15251,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>132343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obrázek 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685DA9DC-3BAD-4987-9BD7-FF275888DCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21326475" y="1162050"/>
+          <a:ext cx="8057143" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15508,10 +15561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AN105"/>
+  <dimension ref="C3:AP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC93" sqref="AC93:AN105"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15531,7 +15584,7 @@
     <col min="24" max="24" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" customWidth="1"/>
     <col min="31" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -15539,7 +15592,7 @@
     <col min="39" max="40" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15559,8 +15612,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
@@ -15601,98 +15654,101 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>D5</f>
+        <f t="shared" ref="Q5:AA5" si="0">D5</f>
         <v>1000</v>
       </c>
       <c r="R5" s="16">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>9056</v>
       </c>
       <c r="S5" s="16">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>17113</v>
       </c>
       <c r="T5" s="16">
-        <f>G5</f>
+        <f t="shared" si="0"/>
         <v>25169</v>
       </c>
       <c r="U5" s="16">
-        <f>H5</f>
+        <f t="shared" si="0"/>
         <v>33226</v>
       </c>
       <c r="V5" s="16">
-        <f>I5</f>
+        <f t="shared" si="0"/>
         <v>41282</v>
       </c>
       <c r="W5" s="16">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>57395</v>
       </c>
       <c r="X5" s="16">
-        <f>K5</f>
+        <f t="shared" si="0"/>
         <v>65452</v>
       </c>
       <c r="Y5" s="16">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>73508</v>
       </c>
       <c r="Z5" s="16">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>89621</v>
       </c>
       <c r="AA5" s="17">
-        <f>N5</f>
+        <f t="shared" si="0"/>
         <v>97677</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD5" s="4">
-        <f>Q5</f>
+        <f t="shared" ref="AD5:AN5" si="1">Q5</f>
         <v>1000</v>
       </c>
       <c r="AE5" s="4">
-        <f>R5</f>
+        <f t="shared" si="1"/>
         <v>9056</v>
       </c>
       <c r="AF5" s="4">
-        <f>S5</f>
+        <f t="shared" si="1"/>
         <v>17113</v>
       </c>
       <c r="AG5" s="4">
-        <f>T5</f>
+        <f t="shared" si="1"/>
         <v>25169</v>
       </c>
       <c r="AH5" s="4">
-        <f>U5</f>
+        <f t="shared" si="1"/>
         <v>33226</v>
       </c>
       <c r="AI5" s="4">
-        <f>V5</f>
+        <f t="shared" si="1"/>
         <v>41282</v>
       </c>
       <c r="AJ5" s="4">
-        <f>W5</f>
+        <f t="shared" si="1"/>
         <v>57395</v>
       </c>
       <c r="AK5" s="4">
-        <f>X5</f>
+        <f t="shared" si="1"/>
         <v>65452</v>
       </c>
       <c r="AL5" s="4">
-        <f>Y5</f>
+        <f t="shared" si="1"/>
         <v>73508</v>
       </c>
       <c r="AM5" s="4">
-        <f>Z5</f>
+        <f t="shared" si="1"/>
         <v>89621</v>
       </c>
       <c r="AN5" s="5">
-        <f>AA5</f>
+        <f t="shared" si="1"/>
         <v>97677</v>
       </c>
+      <c r="AP5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -15802,7 +15858,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="6">
         <v>2</v>
       </c>
@@ -15912,7 +15968,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="8" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>3</v>
       </c>
@@ -16022,7 +16078,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C9" s="6">
         <v>4</v>
       </c>
@@ -16132,7 +16188,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C10" s="6">
         <v>5</v>
       </c>
@@ -16242,7 +16298,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C11" s="6">
         <v>6</v>
       </c>
@@ -16352,7 +16408,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>7</v>
       </c>
@@ -16462,7 +16518,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="13" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C13" s="6">
         <v>8</v>
       </c>
@@ -16572,7 +16628,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="14" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>9</v>
       </c>
@@ -16682,7 +16738,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -16792,7 +16848,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
@@ -16801,11 +16857,11 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:N16" si="0">SUM(E6:E15)/10</f>
+        <f t="shared" ref="E16:N16" si="2">SUM(E6:E15)/10</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.1</v>
       </c>
       <c r="G16" s="4">
@@ -16813,31 +16869,31 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.8</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.1</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.8</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.3</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.7</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75.8</v>
       </c>
       <c r="P16" s="25" t="s">
@@ -16852,39 +16908,39 @@
         <v>113.7</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" ref="S16:AA16" si="1">SUM(S6:S15)/10</f>
+        <f t="shared" ref="S16:AA16" si="3">SUM(S6:S15)/10</f>
         <v>364.4</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>615.4</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1186.8</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1978.7</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2907.7</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4166.2</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4037.3</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5835.6</v>
       </c>
       <c r="AA16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7924.4</v>
       </c>
       <c r="AC16" s="13" t="s">
@@ -16895,43 +16951,43 @@
         <v>2.9</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" ref="AE16:AN16" si="2">SUM(AE6:AE15)/10</f>
+        <f t="shared" ref="AE16:AN16" si="4">SUM(AE6:AE15)/10</f>
         <v>46.1</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92.4</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>159.69999999999999</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>233.4</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>282.7</v>
       </c>
       <c r="AJ16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>419.5</v>
       </c>
       <c r="AK16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>514</v>
       </c>
       <c r="AL16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>537.4</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>659.4</v>
       </c>
       <c r="AN16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>754.4</v>
       </c>
     </row>
@@ -16944,138 +17000,236 @@
         <v>0.16</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" ref="E17:AN17" si="3">_xlfn.VAR.P(E6:E15)</f>
+        <f t="shared" ref="E17:AN17" si="5">_xlfn.VAR.P(E6:E15)</f>
         <v>0.89</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.49</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.29</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3599999999999994</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.69</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.16</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.810000000000004</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42.01</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>167.6</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118.96</v>
       </c>
       <c r="P17" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="R17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>424.41</v>
       </c>
       <c r="S17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9331.84</v>
       </c>
       <c r="T17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29820.84</v>
       </c>
       <c r="U17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101250.76</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>213972.21</v>
       </c>
       <c r="W17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>561208.01</v>
       </c>
       <c r="X17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>375511.36</v>
       </c>
       <c r="Y17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1212688.01</v>
       </c>
       <c r="Z17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2474543.84</v>
       </c>
       <c r="AA17" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2643880.64</v>
       </c>
       <c r="AC17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="AD17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="AE17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.89</v>
       </c>
       <c r="AF17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40.240000000000009</v>
       </c>
       <c r="AG17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225.41</v>
       </c>
       <c r="AH17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>621.84</v>
       </c>
       <c r="AI17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>634.21</v>
       </c>
       <c r="AJ17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1287.25</v>
       </c>
       <c r="AK17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000.6</v>
       </c>
       <c r="AL17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400.44000000000005</v>
       </c>
       <c r="AM17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2425.84</v>
       </c>
       <c r="AN17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5793.44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18">
+        <f>(AD17)^(1/2)</f>
+        <v>0.53851648071345037</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" ref="AE18:AN18" si="6">(AE17)^(1/2)</f>
+        <v>3.5902646142032486</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="6"/>
+        <v>6.3435006108614829</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="6"/>
+        <v>15.013660446406799</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="6"/>
+        <v>24.936719912610801</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="6"/>
+        <v>25.183526361492746</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="6"/>
+        <v>35.878266401820476</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="6"/>
+        <v>31.6322620120661</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="6"/>
+        <v>20.010996976662607</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="6"/>
+        <v>49.252817178309712</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="6"/>
+        <v>76.114650363776875</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19">
+        <f>0.1*(((AD16-AD7)^2)+((AD16-AD9)^2)+((AD16-AD10)^2)+((AD16-AD11)^2)+((AD16-AD12)^2)+((AD16-AD13)^2)+((AD16-AD14)^2)+((AD16-AD15)^2)+((AD16-AD8)^2)+((AD16-AD6)^2))</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" ref="AE19:AN19" si="7">0.1*(((AE16-AE7)^2)+((AE16-AE9)^2)+((AE16-AE10)^2)+((AE16-AE11)^2)+((AE16-AE12)^2)+((AE16-AE13)^2)+((AE16-AE14)^2)+((AE16-AE15)^2)+((AE16-AE8)^2)+((AE16-AE6)^2))</f>
+        <v>12.89</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="7"/>
+        <v>40.24</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="7"/>
+        <v>225.41000000000005</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>621.84</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="7"/>
+        <v>634.21</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="7"/>
+        <v>1287.25</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="7"/>
+        <v>1000.6</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="7"/>
+        <v>400.44000000000005</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="7"/>
+        <v>2425.8399999999997</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="7"/>
+        <v>5793.4400000000005</v>
       </c>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.25">
@@ -17099,39 +17253,39 @@
         <v>1000</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:M24" si="4">E5</f>
+        <f t="shared" ref="E24:M24" si="8">E5</f>
         <v>9056</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17113</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>25169</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33226</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>41282</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>57395</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>65452</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>73508</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>89621</v>
       </c>
       <c r="N24" s="5">
@@ -17146,39 +17300,39 @@
         <v>1000</v>
       </c>
       <c r="R24" s="16">
-        <f t="shared" ref="R24:Z24" si="5">R5</f>
+        <f t="shared" ref="R24:Z24" si="9">R5</f>
         <v>9056</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17113</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25169</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33226</v>
       </c>
       <c r="V24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>41282</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>57395</v>
       </c>
       <c r="X24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>65452</v>
       </c>
       <c r="Y24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>73508</v>
       </c>
       <c r="Z24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>89621</v>
       </c>
       <c r="AA24" s="17">
@@ -17193,39 +17347,39 @@
         <v>1000</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" ref="AE24:AM24" si="6">AE5</f>
+        <f t="shared" ref="AE24:AM24" si="10">AE5</f>
         <v>9056</v>
       </c>
       <c r="AF24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17113</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25169</v>
       </c>
       <c r="AH24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>33226</v>
       </c>
       <c r="AI24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>41282</v>
       </c>
       <c r="AJ24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>57395</v>
       </c>
       <c r="AK24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>65452</v>
       </c>
       <c r="AL24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>73508</v>
       </c>
       <c r="AM24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>89621</v>
       </c>
       <c r="AN24" s="5">
@@ -18338,47 +18492,47 @@
         <v>11</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:N35" si="7">SUM(D25:D34)/10</f>
+        <f t="shared" ref="D35:N35" si="11">SUM(D25:D34)/10</f>
         <v>0.8</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.1</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.4</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.5</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>33.6</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>41.1</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>58.3</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>64.400000000000006</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>78.5</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>98.7</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>116.5</v>
       </c>
       <c r="P35" s="25" t="s">
@@ -18413,66 +18567,66 @@
         <v>670</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" ref="X35:AA35" si="8">SUM(X25:X34)/10</f>
+        <f t="shared" ref="X35:AA35" si="12">SUM(X25:X34)/10</f>
         <v>783.9</v>
       </c>
       <c r="Y35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>850.6</v>
       </c>
       <c r="Z35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1093.5</v>
       </c>
       <c r="AA35" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1145.4000000000001</v>
       </c>
       <c r="AC35" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" ref="AD35:AN35" si="9">SUM(AD25:AD34)/10</f>
+        <f t="shared" ref="AD35:AN35" si="13">SUM(AD25:AD34)/10</f>
         <v>3.7</v>
       </c>
       <c r="AE35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44.4</v>
       </c>
       <c r="AF35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>89.6</v>
       </c>
       <c r="AG35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>136.9</v>
       </c>
       <c r="AH35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>173.7</v>
       </c>
       <c r="AI35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>227.2</v>
       </c>
       <c r="AJ35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>329.4</v>
       </c>
       <c r="AK35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>378.8</v>
       </c>
       <c r="AL35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>419.9</v>
       </c>
       <c r="AM35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>491.4</v>
       </c>
       <c r="AN35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>551.9</v>
       </c>
     </row>
@@ -18485,50 +18639,50 @@
         <v>0.16</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" ref="E36:AN36" si="10">_xlfn.VAR.P(E25:E34)</f>
+        <f t="shared" ref="E36:AN36" si="14">_xlfn.VAR.P(E25:E34)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.6399999999999999</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.4399999999999995</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.49</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.410000000000001</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.44</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>28.45</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>96.01</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>366.65</v>
       </c>
       <c r="P36" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="R36" s="26">
@@ -18536,86 +18690,86 @@
         <v>6.4899999999999993</v>
       </c>
       <c r="S36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>195.69</v>
       </c>
       <c r="T36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>315.01</v>
       </c>
       <c r="U36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>272652.49</v>
       </c>
       <c r="V36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>243534.6</v>
       </c>
       <c r="W36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1207887.96</v>
       </c>
       <c r="X36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2108.8900000000003</v>
       </c>
       <c r="Y36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>771.44</v>
       </c>
       <c r="Z36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10097.450000000001</v>
       </c>
       <c r="AA36" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1489.44</v>
       </c>
       <c r="AC36" s="13" t="s">
         <v>12</v>
       </c>
       <c r="AD36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.41</v>
       </c>
       <c r="AE36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.4399999999999995</v>
       </c>
       <c r="AF36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>48.040000000000006</v>
       </c>
       <c r="AG36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>106.49000000000001</v>
       </c>
       <c r="AH36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12.809999999999997</v>
       </c>
       <c r="AI36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>189.16</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>339.84000000000003</v>
       </c>
       <c r="AK36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>222.56000000000003</v>
       </c>
       <c r="AL36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>146.69</v>
       </c>
       <c r="AM36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>234.04000000000002</v>
       </c>
       <c r="AN36" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>926.08999999999992</v>
       </c>
     </row>
@@ -18640,39 +18794,39 @@
         <v>1000</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:M43" si="11">E24</f>
+        <f t="shared" ref="E43:M43" si="15">E24</f>
         <v>9056</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17113</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25169</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>33226</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>41282</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>57395</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>65452</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>73508</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>89621</v>
       </c>
       <c r="N43" s="5">
@@ -18687,39 +18841,39 @@
         <v>1000</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" ref="R43:Z43" si="12">R24</f>
+        <f t="shared" ref="R43:Z43" si="16">R24</f>
         <v>9056</v>
       </c>
       <c r="S43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17113</v>
       </c>
       <c r="T43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>25169</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>33226</v>
       </c>
       <c r="V43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>41282</v>
       </c>
       <c r="W43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>57395</v>
       </c>
       <c r="X43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>65452</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>73508</v>
       </c>
       <c r="Z43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>89621</v>
       </c>
       <c r="AA43" s="17">
@@ -18734,39 +18888,39 @@
         <v>1000</v>
       </c>
       <c r="AE43" s="4">
-        <f t="shared" ref="AE43:AM43" si="13">AE24</f>
+        <f t="shared" ref="AE43:AM43" si="17">AE24</f>
         <v>9056</v>
       </c>
       <c r="AF43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>17113</v>
       </c>
       <c r="AG43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25169</v>
       </c>
       <c r="AH43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>33226</v>
       </c>
       <c r="AI43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>41282</v>
       </c>
       <c r="AJ43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>57395</v>
       </c>
       <c r="AK43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>65452</v>
       </c>
       <c r="AL43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>73508</v>
       </c>
       <c r="AM43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>89621</v>
       </c>
       <c r="AN43" s="5">
@@ -19879,11 +20033,11 @@
         <v>11</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:N54" si="14">SUM(D44:D53)/10</f>
+        <f t="shared" ref="D54:N54" si="18">SUM(D44:D53)/10</f>
         <v>0.1</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="F54" s="4">
@@ -19891,129 +20045,129 @@
         <v>0.7</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.8</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.3</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.7</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="P54" s="25" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="16">
-        <f t="shared" ref="Q54:AA54" si="15">SUM(Q44:Q53)/10</f>
+        <f t="shared" ref="Q54:AA54" si="19">SUM(Q44:Q53)/10</f>
         <v>0.6</v>
       </c>
       <c r="R54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.9</v>
       </c>
       <c r="S54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.8</v>
       </c>
       <c r="T54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
       <c r="U54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.7</v>
       </c>
       <c r="V54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11.9</v>
       </c>
       <c r="W54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.9</v>
       </c>
       <c r="X54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>13.7</v>
       </c>
       <c r="Y54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15.2</v>
       </c>
       <c r="Z54" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17.8</v>
       </c>
       <c r="AA54" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AC54" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" ref="AD54:AN54" si="16">SUM(AD44:AD53)/10</f>
+        <f t="shared" ref="AD54:AN54" si="20">SUM(AD44:AD53)/10</f>
         <v>0</v>
       </c>
       <c r="AE54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AF54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AG54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.7</v>
       </c>
       <c r="AH54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.5</v>
       </c>
       <c r="AI54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>13.9</v>
       </c>
       <c r="AJ54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.600000000000001</v>
       </c>
       <c r="AK54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>22.7</v>
       </c>
       <c r="AL54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="AM54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>30.2</v>
       </c>
       <c r="AN54" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>32.299999999999997</v>
       </c>
     </row>
@@ -20022,141 +20176,141 @@
         <v>12</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" ref="D55:AN55" si="17">_xlfn.VAR.P(D44:D53)</f>
+        <f t="shared" ref="D55:AN55" si="21">_xlfn.VAR.P(D44:D53)</f>
         <v>0.09</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.21</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.16</v>
       </c>
       <c r="J55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.44</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.49</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.41</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.21</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P55" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="R55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="S55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15999999999999998</v>
       </c>
       <c r="T55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="U55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="V55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.69</v>
       </c>
       <c r="W55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.4899999999999998</v>
       </c>
       <c r="X55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="Y55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1599999999999997</v>
       </c>
       <c r="Z55" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.3599999999999994</v>
       </c>
       <c r="AA55" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.6</v>
       </c>
       <c r="AC55" s="13" t="s">
         <v>12</v>
       </c>
       <c r="AD55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.16</v>
       </c>
       <c r="AF55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
       <c r="AG55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.61</v>
       </c>
       <c r="AH55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.85</v>
       </c>
       <c r="AI55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="AJ55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.2399999999999998</v>
       </c>
       <c r="AK55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.4099999999999993</v>
       </c>
       <c r="AL55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.8</v>
       </c>
       <c r="AM55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.5600000000000005</v>
       </c>
       <c r="AN55" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.6099999999999985</v>
       </c>
     </row>
@@ -20182,129 +20336,129 @@
         <v>17113</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" ref="G93:N93" si="18">G5</f>
+        <f t="shared" ref="G93:N93" si="22">G5</f>
         <v>25169</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>33226</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>41282</v>
       </c>
       <c r="J93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>57395</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>65452</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>73508</v>
       </c>
       <c r="M93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>89621</v>
       </c>
       <c r="N93" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>97677</v>
       </c>
       <c r="P93" s="15" t="s">
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f>D93</f>
+        <f t="shared" ref="Q93:AA93" si="23">D93</f>
         <v>1000</v>
       </c>
       <c r="R93" s="16">
-        <f>E93</f>
+        <f t="shared" si="23"/>
         <v>9056</v>
       </c>
       <c r="S93" s="16">
-        <f>F93</f>
+        <f t="shared" si="23"/>
         <v>17113</v>
       </c>
       <c r="T93" s="16">
-        <f>G93</f>
+        <f t="shared" si="23"/>
         <v>25169</v>
       </c>
       <c r="U93" s="16">
-        <f>H93</f>
+        <f t="shared" si="23"/>
         <v>33226</v>
       </c>
       <c r="V93" s="16">
-        <f>I93</f>
+        <f t="shared" si="23"/>
         <v>41282</v>
       </c>
       <c r="W93" s="16">
-        <f>J93</f>
+        <f t="shared" si="23"/>
         <v>57395</v>
       </c>
       <c r="X93" s="16">
-        <f>K93</f>
+        <f t="shared" si="23"/>
         <v>65452</v>
       </c>
       <c r="Y93" s="16">
-        <f>L93</f>
+        <f t="shared" si="23"/>
         <v>73508</v>
       </c>
       <c r="Z93" s="16">
-        <f>M93</f>
+        <f t="shared" si="23"/>
         <v>89621</v>
       </c>
       <c r="AA93" s="17">
-        <f>N93</f>
+        <f t="shared" si="23"/>
         <v>97677</v>
       </c>
       <c r="AC93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD93" s="4">
-        <f>Q93</f>
+        <f t="shared" ref="AD93:AN93" si="24">Q93</f>
         <v>1000</v>
       </c>
       <c r="AE93" s="4">
-        <f>R93</f>
+        <f t="shared" si="24"/>
         <v>9056</v>
       </c>
       <c r="AF93" s="4">
-        <f>S93</f>
+        <f t="shared" si="24"/>
         <v>17113</v>
       </c>
       <c r="AG93" s="4">
-        <f>T93</f>
+        <f t="shared" si="24"/>
         <v>25169</v>
       </c>
       <c r="AH93" s="4">
-        <f>U93</f>
+        <f t="shared" si="24"/>
         <v>33226</v>
       </c>
       <c r="AI93" s="4">
-        <f>V93</f>
+        <f t="shared" si="24"/>
         <v>41282</v>
       </c>
       <c r="AJ93" s="4">
-        <f>W93</f>
+        <f t="shared" si="24"/>
         <v>57395</v>
       </c>
       <c r="AK93" s="4">
-        <f>X93</f>
+        <f t="shared" si="24"/>
         <v>65452</v>
       </c>
       <c r="AL93" s="4">
-        <f>Y93</f>
+        <f t="shared" si="24"/>
         <v>73508</v>
       </c>
       <c r="AM93" s="4">
-        <f>Z93</f>
+        <f t="shared" si="24"/>
         <v>89621</v>
       </c>
       <c r="AN93" s="5">
-        <f>AA93</f>
+        <f t="shared" si="24"/>
         <v>97677</v>
       </c>
     </row>
@@ -21233,11 +21387,11 @@
         <v>11</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" ref="D104:N104" si="19">SUM(D94:D103)/10</f>
+        <f t="shared" ref="D104:E104" si="25">SUM(D94:D103)/10</f>
         <v>0.2</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.3</v>
       </c>
       <c r="F104" s="4"/>
@@ -21253,94 +21407,94 @@
         <v>11</v>
       </c>
       <c r="Q104" s="16">
-        <f t="shared" ref="Q104:AA104" si="20">SUM(Q94:Q103)/10</f>
+        <f t="shared" ref="Q104:AA104" si="26">SUM(Q94:Q103)/10</f>
         <v>0.2</v>
       </c>
       <c r="R104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="T104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.1</v>
       </c>
       <c r="U104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="V104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="W104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6.4</v>
       </c>
       <c r="X104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>7.4</v>
       </c>
       <c r="Y104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>8.4</v>
       </c>
       <c r="Z104" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9.9</v>
       </c>
       <c r="AA104" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AC104" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AD104" s="4">
-        <f t="shared" ref="AD104:AN104" si="21">SUM(AD94:AD103)/10</f>
+        <f t="shared" ref="AD104:AN104" si="27">SUM(AD94:AD103)/10</f>
         <v>0</v>
       </c>
       <c r="AE104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
       <c r="AF104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AG104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.4</v>
       </c>
       <c r="AH104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.7</v>
       </c>
       <c r="AI104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="AJ104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.2</v>
       </c>
       <c r="AK104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.6</v>
       </c>
       <c r="AL104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="AM104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.3</v>
       </c>
       <c r="AN104" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.3</v>
       </c>
     </row>
@@ -21353,7 +21507,7 @@
         <v>0.16</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" ref="E105:N105" si="22">_xlfn.VAR.P(E94:E103)</f>
+        <f t="shared" ref="E105" si="28">_xlfn.VAR.P(E94:E103)</f>
         <v>0.21</v>
       </c>
       <c r="F105" s="11"/>
@@ -21373,43 +21527,43 @@
         <v>0.16</v>
       </c>
       <c r="R105" s="26">
-        <f t="shared" ref="R105:AA105" si="23">_xlfn.VAR.P(R94:R103)</f>
+        <f t="shared" ref="R105:AA105" si="29">_xlfn.VAR.P(R94:R103)</f>
         <v>0</v>
       </c>
       <c r="S105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.4</v>
       </c>
       <c r="T105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.49</v>
       </c>
       <c r="U105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.2</v>
       </c>
       <c r="V105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.4</v>
       </c>
       <c r="W105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.24</v>
       </c>
       <c r="X105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.24000000000000005</v>
       </c>
       <c r="Y105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.6399999999999999</v>
       </c>
       <c r="Z105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.28999999999999992</v>
       </c>
       <c r="AA105" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
       <c r="AC105" s="13" t="s">
@@ -21420,43 +21574,43 @@
         <v>0</v>
       </c>
       <c r="AE105" s="11">
-        <f t="shared" ref="AE105:AN105" si="24">_xlfn.VAR.P(AE94:AE103)</f>
+        <f t="shared" ref="AE105:AN105" si="30">_xlfn.VAR.P(AE94:AE103)</f>
         <v>0.16</v>
       </c>
       <c r="AF105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.24</v>
       </c>
       <c r="AH105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.21</v>
       </c>
       <c r="AI105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.36</v>
       </c>
       <c r="AJ105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.36</v>
       </c>
       <c r="AK105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.24</v>
       </c>
       <c r="AL105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="AM105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.21</v>
       </c>
       <c r="AN105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.41</v>
       </c>
     </row>

--- a/U2_Janovsky/TZ/tabulky.xlsx
+++ b/U2_Janovsky/TZ/tabulky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karvi_000\Documents\GitHub\ADK_Janovsky\U2_Janovsky\TZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F1EB19A-075B-458C-8B5F-E951C993731E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D409020E-4A56-47B9-B102-952BF13C67A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4041,7 +4041,7 @@
                   <c:v>364.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>615.4</c:v>
+                  <c:v>586.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1186.8</c:v>
@@ -4053,7 +4053,7 @@
                   <c:v>2907.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4166.2</c:v>
+                  <c:v>4266.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4037.3</c:v>
@@ -4062,7 +4062,7 @@
                   <c:v>5835.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7924.4</c:v>
+                  <c:v>8124.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4680,13 +4680,13 @@
                   <c:v>298.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>388</c:v>
+                  <c:v>387.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628</c:v>
+                  <c:v>620.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>670</c:v>
+                  <c:v>670.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>783.9</c:v>
@@ -15563,8 +15563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16140,7 +16140,7 @@
         <v>2045</v>
       </c>
       <c r="X9" s="21">
-        <v>2461</v>
+        <v>3461</v>
       </c>
       <c r="Y9" s="21">
         <v>3169</v>
@@ -16259,7 +16259,7 @@
         <v>6781</v>
       </c>
       <c r="AA10" s="22">
-        <v>3979</v>
+        <v>5979</v>
       </c>
       <c r="AC10" s="6">
         <v>5</v>
@@ -16348,7 +16348,7 @@
         <v>400</v>
       </c>
       <c r="T11" s="21">
-        <v>1004</v>
+        <v>712</v>
       </c>
       <c r="U11" s="21">
         <v>1394</v>
@@ -16913,7 +16913,7 @@
       </c>
       <c r="T16" s="16">
         <f t="shared" si="3"/>
-        <v>615.4</v>
+        <v>586.20000000000005</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="3"/>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="X16" s="16">
         <f t="shared" si="3"/>
-        <v>4166.2</v>
+        <v>4266.2</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="3"/>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="AA16" s="17">
         <f t="shared" si="3"/>
-        <v>7924.4</v>
+        <v>8124.4</v>
       </c>
       <c r="AC16" s="13" t="s">
         <v>11</v>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="T17" s="26">
         <f t="shared" si="5"/>
-        <v>29820.84</v>
+        <v>14800.36</v>
       </c>
       <c r="U17" s="26">
         <f t="shared" si="5"/>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="X17" s="26">
         <f t="shared" si="5"/>
-        <v>375511.36</v>
+        <v>124471.36000000002</v>
       </c>
       <c r="Y17" s="26">
         <f t="shared" si="5"/>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="AA17" s="27">
         <f t="shared" si="5"/>
-        <v>2643880.64</v>
+        <v>1425720.64</v>
       </c>
       <c r="AC17" s="13" t="s">
         <v>12</v>
@@ -17886,7 +17886,7 @@
         <v>708</v>
       </c>
       <c r="W29" s="21">
-        <v>4332</v>
+        <v>673</v>
       </c>
       <c r="X29" s="21">
         <v>773</v>
@@ -18100,7 +18100,7 @@
         <v>314</v>
       </c>
       <c r="U31" s="21">
-        <v>2127</v>
+        <v>381</v>
       </c>
       <c r="V31" s="21">
         <v>489</v>
@@ -18213,7 +18213,7 @@
         <v>388</v>
       </c>
       <c r="V32" s="21">
-        <v>2238</v>
+        <v>555</v>
       </c>
       <c r="W32" s="21">
         <v>663</v>
@@ -18555,16 +18555,16 @@
         <v>298.7</v>
       </c>
       <c r="U35" s="16">
-        <f>SUM(U25:U30,U33:U34,U32)/9</f>
-        <v>388</v>
+        <f>SUM(U25:U34)/10</f>
+        <v>387.3</v>
       </c>
       <c r="V35" s="16">
-        <f>SUM(V25:V31,V33:V34)/9</f>
-        <v>628</v>
+        <f>SUM(V25:V34)/10</f>
+        <v>620.70000000000005</v>
       </c>
       <c r="W35" s="16">
-        <f>SUM(W25:W28,W30:W34)/9</f>
-        <v>670</v>
+        <f>SUM(W25:W34)/10</f>
+        <v>670.3</v>
       </c>
       <c r="X35" s="16">
         <f t="shared" ref="X35:AA35" si="12">SUM(X25:X34)/10</f>
@@ -18699,15 +18699,15 @@
       </c>
       <c r="U36" s="26">
         <f t="shared" si="14"/>
-        <v>272652.49</v>
+        <v>486.01000000000005</v>
       </c>
       <c r="V36" s="26">
         <f t="shared" si="14"/>
-        <v>243534.6</v>
+        <v>10725.21</v>
       </c>
       <c r="W36" s="26">
         <f t="shared" si="14"/>
-        <v>1207887.96</v>
+        <v>966.81000000000006</v>
       </c>
       <c r="X36" s="26">
         <f t="shared" si="14"/>
